--- a/Documentation/Echeancier.xlsx
+++ b/Documentation/Echeancier.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>Semaine\Etudiant</t>
   </si>
@@ -45,6 +45,57 @@
   </si>
   <si>
     <t>Création du backlog, préparation de l'environnement de dev, préparation du source control</t>
+  </si>
+  <si>
+    <t>Page de création de milieu de stage</t>
+  </si>
+  <si>
+    <t>Page de création de stage</t>
+  </si>
+  <si>
+    <t>Page de liste des milieu de stages et de stage</t>
+  </si>
+  <si>
+    <t>Page de modification et duplication de milieu de stage</t>
+  </si>
+  <si>
+    <t>Page de modification et duplication de stage</t>
+  </si>
+  <si>
+    <t>Retour sprint 1</t>
+  </si>
+  <si>
+    <t>Filtres de la liste des stages présentés à l'étudiant</t>
+  </si>
+  <si>
+    <t>Documentation scolaire + liste des stage vue par l'étudiant</t>
+  </si>
+  <si>
+    <t>Ordre de préférance des stages de l'étudiant</t>
+  </si>
+  <si>
+    <t>Retour sprint 2</t>
+  </si>
+  <si>
+    <t>Impression de liste de stage + documentation scolaire</t>
+  </si>
+  <si>
+    <t>Approuver le choix de stage de l'étudiant</t>
+  </si>
+  <si>
+    <t>Retour sprint 3</t>
+  </si>
+  <si>
+    <t>Attribuer un superviseur au stage de l'étudiant et visualiser les choix tentatif de l'étudiant</t>
+  </si>
+  <si>
+    <t>Consulter les détails des étudiants et attribuer un stage en dehors des choix de l'étudiant</t>
+  </si>
+  <si>
+    <t>Retour sprint 4</t>
+  </si>
+  <si>
+    <t>Réglage des derniers bugs</t>
   </si>
 </sst>
 </file>
@@ -93,10 +144,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -383,7 +437,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,83 +477,164 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f t="shared" ref="A3:A15" si="0">A2+1</f>
+        <f t="shared" ref="A3:A4" si="0">A2+1</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>A4+1</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>A6+1</f>
         <v>5</v>
       </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>A7+1</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>A9+1</f>
         <v>7</v>
       </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>A10+1</f>
         <v>8</v>
       </c>
+      <c r="B12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>A12+1</f>
         <v>9</v>
       </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <f>A13+1</f>
         <v>10</v>
       </c>
+      <c r="B15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Echeancier.xlsx
+++ b/Documentation/Echeancier.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>Semaine\Etudiant</t>
   </si>
@@ -96,13 +96,25 @@
   </si>
   <si>
     <t>Réglage des derniers bugs</t>
+  </si>
+  <si>
+    <t>Fin sprint 1</t>
+  </si>
+  <si>
+    <t>Fin sprint 2</t>
+  </si>
+  <si>
+    <t>Fin sprint 3</t>
+  </si>
+  <si>
+    <t>Fin sprint 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +125,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -144,14 +162,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -437,7 +454,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,13 +484,13 @@
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -482,13 +499,13 @@
         <f t="shared" ref="A3:A4" si="0">A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -497,34 +514,36 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>A4+1</f>
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -533,34 +552,36 @@
         <f>A6+1</f>
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>A7+1</f>
         <v>6</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -569,34 +590,36 @@
         <f>A9+1</f>
         <v>7</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="A11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>A10+1</f>
         <v>8</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -605,38 +628,47 @@
         <f>A12+1</f>
         <v>9</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="A14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <f>A13+1</f>
         <v>10</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A14:D14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>